--- a/Report/Book1.xlsx
+++ b/Report/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\Dropbox\Capital Raise\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Capital Raise\Capital-Raise\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DC2A5F-6BAC-40A0-9B5E-187EAE033AD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09BB540-23CF-40A2-8A4D-019CA86DEDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E4A49DCB-147E-4E59-9C34-33DCFD9FF5B7}"/>
+    <workbookView xWindow="-10956" yWindow="1524" windowWidth="23004" windowHeight="11724" xr2:uid="{E4A49DCB-147E-4E59-9C34-33DCFD9FF5B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="74">
   <si>
     <t>Total</t>
   </si>
@@ -225,14 +225,39 @@
   </si>
   <si>
     <t>QuantileLeverageRatio</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Beta_CAPM</t>
+  </si>
+  <si>
+    <t>Alpha_CAPM</t>
+  </si>
+  <si>
+    <t>betaM_FOUR</t>
+  </si>
+  <si>
+    <t>betaS_FOUR</t>
+  </si>
+  <si>
+    <t>betaH_FOUR</t>
+  </si>
+  <si>
+    <t>betaW_FOUR</t>
+  </si>
+  <si>
+    <t>Alpha_FOUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -251,15 +276,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -291,11 +322,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,19 +355,25 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1020776-B87C-4B23-9CFC-DC002813A4DA}">
   <dimension ref="B2:AJ107"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AB6:AI26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="D22:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,20 +748,20 @@
         <v>37</v>
       </c>
       <c r="C5" s="1">
-        <v>754</v>
+        <v>716</v>
       </c>
       <c r="D5" s="1">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="E5" s="1">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="F5" s="1">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G5" s="1">
         <f>SUM(C5:F5)</f>
-        <v>1439</v>
+        <v>1290</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -722,19 +774,19 @@
       </c>
       <c r="C6" s="2">
         <f>C5/$G$5*100</f>
-        <v>52.397498262682419</v>
+        <v>55.503875968992247</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6:G6" si="0">D5/$G$5*100</f>
-        <v>28.353022932592076</v>
+        <v>27.751937984496124</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>12.508686587908269</v>
+        <v>8.9147286821705425</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>6.7407922168172343</v>
+        <v>7.8294573643410859</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -1009,13 +1061,13 @@
       <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <v>0.25</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>0.5</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>0.75</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1077,22 +1129,22 @@
         <v>43</v>
       </c>
       <c r="C12" s="2">
-        <v>0.79934799999999995</v>
+        <v>0.80578300000000003</v>
       </c>
       <c r="D12" s="2">
-        <v>0.83750800000000003</v>
+        <v>0.85146900000000003</v>
       </c>
       <c r="E12" s="2">
         <v>-3.6228850000000001</v>
       </c>
       <c r="F12" s="2">
-        <v>0.28168399999999999</v>
+        <v>0.279109</v>
       </c>
       <c r="G12" s="2">
-        <v>0.68610499999999996</v>
+        <v>0.69140800000000002</v>
       </c>
       <c r="H12" s="2">
-        <v>1.184455</v>
+        <v>1.2098040000000001</v>
       </c>
       <c r="I12" s="2">
         <v>8.8145000000000007</v>
@@ -1153,22 +1205,22 @@
         <v>44</v>
       </c>
       <c r="C13" s="2">
-        <v>0.156834</v>
+        <v>0.16046299999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>0.39458700000000002</v>
+        <v>0.39771699999999999</v>
       </c>
       <c r="E13" s="2">
         <v>-2.4208889999999998</v>
       </c>
       <c r="F13" s="2">
-        <v>-4.6232000000000002E-2</v>
+        <v>-4.6996999999999997E-2</v>
       </c>
       <c r="G13" s="2">
-        <v>9.4716999999999996E-2</v>
+        <v>0.104153</v>
       </c>
       <c r="H13" s="2">
-        <v>0.283468</v>
+        <v>0.28356999999999999</v>
       </c>
       <c r="I13" s="2">
         <v>3.60446</v>
@@ -1229,22 +1281,22 @@
         <v>45</v>
       </c>
       <c r="C14" s="2">
-        <v>0.78576400000000002</v>
+        <v>0.78713900000000003</v>
       </c>
       <c r="D14" s="2">
-        <v>0.72665400000000002</v>
+        <v>0.73858699999999999</v>
       </c>
       <c r="E14" s="2">
         <v>-5.40503</v>
       </c>
       <c r="F14" s="2">
-        <v>0.323162</v>
+        <v>0.31706499999999999</v>
       </c>
       <c r="G14" s="2">
-        <v>0.719252</v>
+        <v>0.71629799999999999</v>
       </c>
       <c r="H14" s="2">
-        <v>1.190747</v>
+        <v>1.2020310000000001</v>
       </c>
       <c r="I14" s="2">
         <v>4.6473779999999998</v>
@@ -1305,22 +1357,22 @@
         <v>46</v>
       </c>
       <c r="C15" s="2">
-        <v>0.13569000000000001</v>
+        <v>0.136715</v>
       </c>
       <c r="D15" s="2">
-        <v>0.28312300000000001</v>
+        <v>0.292265</v>
       </c>
       <c r="E15" s="2">
         <v>-1.1350199999999999</v>
       </c>
       <c r="F15" s="2">
-        <v>-1.1939999999999999E-2</v>
+        <v>-1.3409000000000001E-2</v>
       </c>
       <c r="G15" s="2">
-        <v>6.8828E-2</v>
+        <v>6.7451999999999998E-2</v>
       </c>
       <c r="H15" s="2">
-        <v>0.217887</v>
+        <v>0.212005</v>
       </c>
       <c r="I15" s="2">
         <v>2.3285309999999999</v>
@@ -1381,22 +1433,22 @@
         <v>47</v>
       </c>
       <c r="C16" s="2">
-        <v>1.7278000000000002E-2</v>
+        <v>1.9786999999999999E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>0.27162799999999998</v>
+        <v>0.28664699999999999</v>
       </c>
       <c r="E16" s="2">
-        <v>-1.4323870000000001</v>
+        <v>-2.1108310000000001</v>
       </c>
       <c r="F16" s="2">
-        <v>-9.1391E-2</v>
+        <v>-9.6089999999999995E-2</v>
       </c>
       <c r="G16" s="2">
-        <v>1.7461000000000001E-2</v>
+        <v>2.3403E-2</v>
       </c>
       <c r="H16" s="2">
-        <v>0.13845099999999999</v>
+        <v>0.14609900000000001</v>
       </c>
       <c r="I16" s="2">
         <v>1.6539090000000001</v>
@@ -1457,22 +1509,22 @@
         <v>48</v>
       </c>
       <c r="C17" s="2">
-        <v>6.2873999999999999E-2</v>
+        <v>6.8670999999999996E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>0.25783600000000001</v>
+        <v>0.26923399999999997</v>
       </c>
       <c r="E17" s="2">
         <v>-0.70827300000000004</v>
       </c>
       <c r="F17" s="2">
-        <v>-7.1151000000000006E-2</v>
+        <v>-7.0805000000000007E-2</v>
       </c>
       <c r="G17" s="2">
-        <v>3.4625000000000003E-2</v>
+        <v>3.3209000000000002E-2</v>
       </c>
       <c r="H17" s="2">
-        <v>0.152757</v>
+        <v>0.15976000000000001</v>
       </c>
       <c r="I17" s="2">
         <v>2.0974050000000002</v>
@@ -1533,22 +1585,22 @@
         <v>49</v>
       </c>
       <c r="C18" s="2">
-        <v>0.101031</v>
+        <v>9.8987000000000006E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>0.41325800000000001</v>
+        <v>0.41553000000000001</v>
       </c>
       <c r="E18" s="2">
         <v>-2.1452369999999998</v>
       </c>
       <c r="F18" s="2">
-        <v>-6.6792000000000004E-2</v>
+        <v>-7.8154000000000001E-2</v>
       </c>
       <c r="G18" s="2">
-        <v>5.8078999999999999E-2</v>
+        <v>6.0774000000000002E-2</v>
       </c>
       <c r="H18" s="2">
-        <v>0.22097</v>
+        <v>0.222714</v>
       </c>
       <c r="I18" s="2">
         <v>4.7060040000000001</v>
@@ -1709,6 +1761,30 @@
       </c>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N21" s="1">
         <v>-6</v>
       </c>
@@ -1761,6 +1837,33 @@
       </c>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1">
+        <v>103849</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.80578300000000003</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.85146900000000003</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-3.6228850000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.279109</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.69140800000000002</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.2098040000000001</v>
+      </c>
+      <c r="J22" s="2">
+        <v>8.8145000000000007</v>
+      </c>
       <c r="N22" s="1">
         <v>-5</v>
       </c>
@@ -1813,6 +1916,33 @@
       </c>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1">
+        <v>103849</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.16046299999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.39771699999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-2.4208889999999998</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-4.6996999999999997E-2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.104153</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.28356999999999999</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3.60446</v>
+      </c>
       <c r="N23" s="1">
         <v>-4</v>
       </c>
@@ -1865,6 +1995,33 @@
       </c>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1">
+        <v>103849</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.78713900000000003</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.73858699999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-5.40503</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.31706499999999999</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.71629799999999999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.2020310000000001</v>
+      </c>
+      <c r="J24" s="2">
+        <v>4.6473779999999998</v>
+      </c>
       <c r="N24" s="1">
         <v>-3</v>
       </c>
@@ -1917,6 +2074,33 @@
       </c>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1">
+        <v>103849</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.136715</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.292265</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-1.1350199999999999</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-1.3409000000000001E-2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>6.7451999999999998E-2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.212005</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2.3285309999999999</v>
+      </c>
       <c r="N25" s="1">
         <v>-2</v>
       </c>
@@ -1969,6 +2153,33 @@
       </c>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1">
+        <v>103849</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.9786999999999999E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.28664699999999999</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-2.1108310000000001</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-9.6089999999999995E-2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2.3403E-2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.14609900000000001</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1.6539090000000001</v>
+      </c>
       <c r="N26" s="1">
         <v>-1</v>
       </c>
@@ -2021,10 +2232,64 @@
       </c>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="1">
+        <v>103849</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6.8670999999999996E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.26923399999999997</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-0.70827300000000004</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-7.0805000000000007E-2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>3.3209000000000002E-2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.15976000000000001</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2.0974050000000002</v>
+      </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="1">
+        <v>103849</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9.8987000000000006E-2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.41553000000000001</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-2.1452369999999998</v>
+      </c>
+      <c r="G28" s="2">
+        <v>-7.8154000000000001E-2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6.0774000000000002E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.222714</v>
+      </c>
+      <c r="J28" s="2">
+        <v>4.7060040000000001</v>
+      </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -2037,60 +2302,60 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="M30" s="10" t="s">
+      <c r="M30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="O30" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P30" s="10" t="s">
+      <c r="P30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q30" s="10" t="s">
+      <c r="Q30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="R30" s="10" t="s">
+      <c r="R30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="S30" s="10" t="s">
+      <c r="S30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T30" s="10" t="s">
+      <c r="T30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="U30" s="10" t="s">
+      <c r="U30" s="8" t="s">
         <v>53</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="AA30" s="10" t="s">
+      <c r="AA30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AB30" s="10" t="s">
+      <c r="AB30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AC30" s="10" t="s">
+      <c r="AC30" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AD30" s="10" t="s">
+      <c r="AD30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AE30" s="10" t="s">
+      <c r="AE30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AF30" s="10" t="s">
+      <c r="AF30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AG30" s="10" t="s">
+      <c r="AG30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AH30" s="10" t="s">
+      <c r="AH30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AI30" s="10" t="s">
+      <c r="AI30" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2938,8 +3203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BDB724-40E7-4723-A866-4C59588861AD}">
   <dimension ref="H7:DC77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CL1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DC19" sqref="CZ11:DC19"/>
+    <sheetView topLeftCell="CL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CW7" sqref="CW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2962,24 +3227,24 @@
   </cols>
   <sheetData>
     <row r="7" spans="8:107" x14ac:dyDescent="0.3">
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AC7" s="7" t="s">
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AC7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
       <c r="AZ7" s="6" t="s">
         <v>14</v>
       </c>
@@ -3003,22 +3268,22 @@
       </c>
     </row>
     <row r="8" spans="8:107" x14ac:dyDescent="0.3">
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AD8" s="7" t="s">
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AD8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
       <c r="AY8" t="s">
         <v>17</v>
       </c>
@@ -3690,14 +3955,14 @@
     </row>
     <row r="13" spans="8:107" x14ac:dyDescent="0.3">
       <c r="H13" s="3"/>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
       <c r="T13" s="3">
         <v>4</v>
       </c>
@@ -4750,15 +5015,15 @@
       <c r="N20" s="4">
         <v>5.2094927999999996</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="U20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
       <c r="BL20" s="6">
         <v>15.105433</v>
       </c>
@@ -4833,13 +5098,13 @@
       </c>
     </row>
     <row r="21" spans="8:107" x14ac:dyDescent="0.3">
-      <c r="V21" s="7" t="s">
+      <c r="V21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
       <c r="AI21" t="s">
         <v>9</v>
       </c>
@@ -6234,14 +6499,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE9710C-8085-4964-B2A4-C31EF7DBF810}">
-  <dimension ref="A1"/>
+  <dimension ref="D7:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E7:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="E7">
+        <f>D7/$D$22</f>
+        <v>6.962112299968673E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="12">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E22" si="0">D8/$D$22</f>
+        <v>7.7303453813445278E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="11">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8.642622165478353E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="12">
+        <v>21.3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.10227102895816052</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="11">
+        <v>26.7</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.12819889545459556</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="12">
+        <v>29.5</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.14164297437867301</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="11">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.15940836438548964</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="12">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.19349870737154312</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="11">
+        <v>52.6</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.25255662550231189</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="12">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.34042328418467516</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="11">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.39323930852926509</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="12">
+        <v>91.7</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.44029358476353614</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="11">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.48014567585990853</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="12">
+        <v>114.7</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.55072709021131505</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="11">
+        <v>170.724600874826</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.8197267887295645</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="12">
+        <v>208.27012514672083</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>